--- a/Planning_optimization_part3/Customer_orders.xlsx
+++ b/Planning_optimization_part3/Customer_orders.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapti\Documents\GitHub\Production-plan-optimization\Planning_optimization_part3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914FD9CC-8FEB-4D8F-A4FA-9AB80B07D189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD80C03-1957-477A-9CF6-9A76D73C0510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="2025" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,7 +426,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Planning_optimization_part3/Customer_orders.xlsx
+++ b/Planning_optimization_part3/Customer_orders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapti\Documents\GitHub\Production-plan-optimization\Planning_optimization_part3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD80C03-1957-477A-9CF6-9A76D73C0510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2636F015-2500-4137-9BC1-1EE3FC8EDEBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4215" yWindow="2025" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
